--- a/biology/Botanique/Hyperaccumulateur/Hyperaccumulateur.xlsx
+++ b/biology/Botanique/Hyperaccumulateur/Hyperaccumulateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un hyperaccumulateur est un organisme capable d'accumuler dans ses tissus, sans en mourir, une quantité élevée, voire très élevée, d'un ou de plusieurs éléments toxiques ; généralement par le biais de la bioaccumulation. Les organismes les plus étudiés de ce point de vue sont des plantes hyperaccumulatrices, qui sont environ 0,2% des plantes vasculaires connues (soit environ 700 espèces dans le monde).
 Certains hyperaccumulateurs sont utilisés pour extraire des métaux toxiques de milieux pollués (eau, sols ou stériles minières en général). Dans le cas des plantes, on parle de phytoremédiation.
-En complément, certains métabolites et  exsudats (substances émises par les racines) peuvent jouer un rôle important ou essentiel dans la dégradation de certains polluants (organométalliques par exemple). Les micro-organismes du sol utilisent ces exsudats et les polluants conjointement, ce qui développe leur activité. Ces exsudats et les polluants sont probablement utilisés conjointement par les micro-organismes du sol, ce qui stimule l’activité de ces derniers[1].
+En complément, certains métabolites et  exsudats (substances émises par les racines) peuvent jouer un rôle important ou essentiel dans la dégradation de certains polluants (organométalliques par exemple). Les micro-organismes du sol utilisent ces exsudats et les polluants conjointement, ce qui développe leur activité. Ces exsudats et les polluants sont probablement utilisés conjointement par les micro-organismes du sol, ce qui stimule l’activité de ces derniers.
 </t>
         </is>
       </c>
@@ -513,14 +525,16 @@
           <t>Spécificités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le monde végétal, ces plantes sont rares (0,2%) parmi les plantes vasculaires. On les identifient cependant facilement au fait qu'elles sont les seules à survivre sur tout ou partie des substrats pollués par des métaux ou sur un sol normalement riche en métaux. 
-Selon Pollard en 2014, elles se montrent capables de supporter des taux de métaux par feuilles sèches[2] :
+Selon Pollard en 2014, elles se montrent capables de supporter des taux de métaux par feuilles sèches :
 supérieures à 100 μg/g de feuille en poids sec pour le Cd, le Se et le Tl ;
 à plus de 1000 μg/g pour l’As, le Ni, le Pb ;
 à plus de 3000 μg/g pour le Zn et à 10 000 μg/g pour le Mn.
-Zeremski et al. notaient en 2021 que parmi 700 taxons classés hyperaccumulateurs de métaux ; plus de 100 espèces appartiennent à la famille des Brassicaceae[3], une famille dont les membres sont presqque tous non-mycorhiziens[4].
+Zeremski et al. notaient en 2021 que parmi 700 taxons classés hyperaccumulateurs de métaux ; plus de 100 espèces appartiennent à la famille des Brassicaceae, une famille dont les membres sont presqque tous non-mycorhiziens.
 </t>
         </is>
       </c>
@@ -549,10 +563,12 @@
           <t>Table d'hyperaccumulateurs – 1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce premier tableau gère les composants suivants : Al, Ag, As, Be, Cr, cuivre, Mn, Hg, Mo, Pb, Pd, Pt, Se, Zn, Naphtalène.
-La base de cette présente liste non exhaustive d'hyperaccumulateurs a été fournie par Stevie Famulari[5]. (colonne Critères d'accumulation, que signifient A-, H-, T- ?)
+La base de cette présente liste non exhaustive d'hyperaccumulateurs a été fournie par Stevie Famulari. (colonne Critères d'accumulation, que signifient A-, H-, T- ?)
 </t>
         </is>
       </c>
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
